--- a/test.xlsx
+++ b/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,24 +368,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TestAppend col1</t>
+          <t>21321</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TestAppend col2</t>
+          <t>tof, bce, iphone, bce, def, bce, bce, tof, bce, avu, iphone, iphone</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>12378</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>avu, iphone, tof, tof, tof, avu, bce, iphone, tof, def, tof, avu, def, bce, avu, iphone, tof, def, tof, def, avu, def, tof, avu, iphone, bce, iphone</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>26452</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tof, avu, avu, tof, bce, iphone, tof, def, def, avu, iphone, def, bce, avu, def, avu, iphone, def, def, avu, avu</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>953251</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>def, avu, iphone, iphone, def, avu, bce, iphone, iphone, avu, iphone</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>123162</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>avu, bce, avu, tof, iphone, avu, bce, iphone, bce, iphone, bce, bce, iphone, iphone</t>
         </is>
       </c>
     </row>
